--- a/Metadata/Datsets_Metadata.xlsx
+++ b/Metadata/Datsets_Metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Size</t>
   </si>
   <si>
@@ -37,7 +40,7 @@
     <t xml:space="preserve">Keywords</t>
   </si>
   <si>
-    <t xml:space="preserve">Source</t>
+    <t xml:space="preserve">Source Info</t>
   </si>
   <si>
     <t xml:space="preserve">DU-UNITN-alumni</t>
@@ -46,6 +49,9 @@
     <t xml:space="preserve">dataset containing information regarding unitn staff which has been part of the Knowdive research group</t>
   </si>
   <si>
+    <t xml:space="preserve">Data resource</t>
+  </si>
+  <si>
     <t xml:space="preserve">5,61 KB</t>
   </si>
   <si>
@@ -103,7 +109,7 @@
     <t xml:space="preserve">40,5 KB</t>
   </si>
   <si>
-    <t xml:space="preserve">Knowdive Research Group Website</t>
+    <t xml:space="preserve">Knowdive Research Group Website (scraped)</t>
   </si>
   <si>
     <t xml:space="preserve">KRG-UNTN-courses</t>
@@ -161,6 +167,102 @@
   </si>
   <si>
     <t xml:space="preserve">Open Street Map website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lov_aiiso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ontology modeling internal structure of academic institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,9 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology, Knowledge, university, academic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiveSchema Academic Institution Internal Structure Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lov_swrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ontology modeling the work of research communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,2 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology, Knowledge, research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiveSchema Semantic Web for Research Communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lov_vivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ontology modeling research instititutions and creative work in the research sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiveSchema VIVO Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITN-DU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ontology modeling the staff and research work performed in unitn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,3 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology, Knowledge, unitn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DU-UNITN Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language data regarding the DU-UNITN datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,27 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language, unitn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRG-UNITN Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language data constructed to provide information regarding the KRG-UNITN scraped data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,38 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language, knowdive, unitn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
 </sst>
 </file>
@@ -170,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -201,12 +303,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +355,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,19 +376,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,205 +411,376 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Metadata/Datsets_Metadata.xlsx
+++ b/Metadata/Datsets_Metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -169,6 +169,84 @@
     <t xml:space="preserve">Open Street Map website</t>
   </si>
   <si>
+    <t xml:space="preserve">KGE24-13-alumni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset of processed data regarding the alumni of the KRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,7 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None (constrcuted during project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGE24-13-courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset of processed data regarding the courses teached b members of the KRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,99 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGE24-13-member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset of processed data regarding the members of the KRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,2 KB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGE24-13-person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datset of processed data regarding the people connected through research work, alumni and members of the the KRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74,2 KB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">staff, people, knowdive, unitn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGE24-13-project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset of processed data regarding the projects of the KRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,9 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGE24-13-researchProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset of processed data regarding the creative work produced by the KRG through research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,2 KB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGE24-13-researchTopic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset of processed data regarding the topic of the KRG’s research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,83 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGE24-13-university</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset of processed data regarding the universities connected to the KRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,51 KB</t>
+  </si>
+  <si>
     <t xml:space="preserve">lov_aiiso</t>
   </si>
   <si>
@@ -232,6 +310,18 @@
     <t xml:space="preserve">Ontology, Knowledge, unitn</t>
   </si>
   <si>
+    <t xml:space="preserve">KGE24-13-ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ontology modelling the final KG for the KGE24-13 project regarding the KRG research work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,9 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology, Knowledge, knowdive, research</t>
+  </si>
+  <si>
     <t xml:space="preserve">DU-UNITN Language</t>
   </si>
   <si>
@@ -262,7 +352,16 @@
     <t xml:space="preserve">Language, knowdive, unitn</t>
   </si>
   <si>
-    <t xml:space="preserve">None</t>
+    <t xml:space="preserve">KGE24-13-UNITN Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language data constructed to integrate KRG-UNITN and DU-UNITN language resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,3 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLSX</t>
   </si>
 </sst>
 </file>
@@ -272,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,6 +401,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,7 +451,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,6 +461,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,13 +485,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.89"/>
@@ -645,142 +754,372 @@
         <v>48</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>49</v>
+      <c r="A14" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="C16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="E16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="G16" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="C17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="E17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="B18" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="C18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="E18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="B19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="0" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>80</v>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
